--- a/public/templates/template_akun.xlsx
+++ b/public/templates/template_akun.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF3F9475-AEF1-4012-A71F-68F8872DAFC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC2BE5E-082B-4C59-AD47-AC72BE7B1913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14310" yWindow="0" windowWidth="14580" windowHeight="15570" xr2:uid="{FF72B1FA-259B-409D-9ABE-077AB06C1F9E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="15700" xr2:uid="{FF72B1FA-259B-409D-9ABE-077AB06C1F9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Nama</t>
   </si>
@@ -42,16 +42,19 @@
     <t>NRP</t>
   </si>
   <si>
-    <t>Satuan_Bagian</t>
-  </si>
-  <si>
-    <t>Posisi</t>
-  </si>
-  <si>
     <t>Catatan:</t>
   </si>
   <si>
     <t>JANGAN Menghapus/mengedit header tabel</t>
+  </si>
+  <si>
+    <t>Pangkat</t>
+  </si>
+  <si>
+    <t>Fungsi</t>
+  </si>
+  <si>
+    <t>Jabatan</t>
   </si>
 </sst>
 </file>
@@ -426,22 +429,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{053800D9-43C6-4077-A63E-FE54F8C15D2C}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.90625" customWidth="1"/>
-    <col min="2" max="2" width="13.1796875" customWidth="1"/>
-    <col min="3" max="3" width="18.1796875" customWidth="1"/>
-    <col min="4" max="4" width="14.1796875" customWidth="1"/>
-    <col min="6" max="6" width="38.90625" customWidth="1"/>
+    <col min="2" max="3" width="13.1796875" customWidth="1"/>
+    <col min="4" max="4" width="18.1796875" customWidth="1"/>
+    <col min="5" max="5" width="14.1796875" customWidth="1"/>
+    <col min="7" max="7" width="38.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -449,20 +452,23 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G3" s="1" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F3" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
